--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -1,61 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohdsalekhan/PycharmProjects/MainAssigmentAPI/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77922069-07C0-614C-908A-25A4959F8556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15320" xr2:uid="{0C679330-3044-6641-8D6D-0E62C327B27B}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15320" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="181029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>API</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -74,22 +46,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -389,16 +420,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9561C839-5141-684F-AC17-6D9C272211DD}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>[{'completed': False, '_id': '620a604d3238b70017d5fda3', 'description': 'reading book 1', 'owner': '620a323a3238b70017d5fce3', 'createdAt': '2022-02-14T13:59:41.439Z', 'updatedAt': '2022-02-14T13:59:41.439Z', '__v': 0}, {'completed': False, '_id': '620a85a33238b70017d5ff85', 'description': 'eating', 'owner': '620a323a3238b70017d5fce3', 'createdAt': '2022-02-14T16:38:59.291Z', 'updatedAt': '2022-02-14T16:38:59.291Z', '__v': 0}, {'completed': False, '_id': '620a97013238b70017d60003', 'description': 'reading books 1', 'owner': '620a323a3238b70017d5fce3', 'createdAt': '2022-02-14T17:53:05.093Z', 'updatedAt': '2022-02-14T17:53:05.093Z', '__v': 0}, {'completed': False, '_id': '620a97053238b70017d60005', 'description': 'reading books 2', 'owner': '620a323a3238b70017d5fce3', 'createdAt': '2022-02-14T17:53:09.626Z', 'updatedAt': '2022-02-14T17:53:09.626Z', '__v': 0}, {'completed': False, '_id': '620a970a3238b70017d60007', 'description': 'reading books 3', 'owner': '620a323a3238b70017d5fce3', 'createdAt': '2022-02-14T17:53:14.060Z', 'updatedAt': '2022-02-14T17:53:14.060Z', '__v': 0}, {'completed': False, '_id': '620a970e3238b70017d60009', 'description': 'reading books 4', 'owner': '620a323a3238b70017d5fce3', 'createdAt': '2022-02-14T17:53:18.740Z', 'updatedAt': '2022-02-14T17:53:18.740Z', '__v': 0}, {'completed': False, '_id': '620a97133238b70017d6000b', 'description': 'reading books 5', 'owner': '620a323a3238b70017d5fce3', 'createdAt': '2022-02-14T17:53:23.375Z', 'updatedAt': '2022-02-14T17:53:23.375Z', '__v': 0}, {'completed': False, '_id': '620a97183238b70017d6000d', 'description': 'reading books 6', 'owner': '620a323a3238b70017d5fce3', 'createdAt': '2022-02-14T17:53:28.070Z', 'updatedAt': '2022-02-14T17:53:28.070Z', '__v': 0}, {'completed': False, '_id': '620a971c3238b70017d6000f', 'description': 'reading books 7', 'owner': '620a323a3238b70017d5fce3', 'createdAt': '2022-02-14T17:53:32.603Z', 'updatedAt': '2022-02-14T17:53:32.603Z', '__v': 0}, {'completed': False, '_id': '620a97213238b70017d60011', 'description': 'reading books 8', 'owner': '620a323a3238b70017d5fce3', 'createdAt': '2022-02-14T17:53:37.147Z', 'updatedAt': '2022-02-14T17:53:37.147Z', '__v': 0}, {'completed': False, '_id': '620a97253238b70017d60013', 'description': 'reading books 9', 'owner': '620a323a3238b70017d5fce3', 'createdAt': '2022-02-14T17:53:41.952Z', 'updatedAt': '2022-02-14T17:53:41.952Z', '__v': 0}, {'completed': False, '_id': '620a972a3238b70017d60015', 'description': 'reading books 10', 'owner': '620a323a3238b70017d5fce3', 'createdAt': '2022-02-14T17:53:46.578Z', 'updatedAt': '2022-02-14T17:53:46.578Z', '__v': 0}, {'completed': False, '_id': '620a972f3238b70017d60017', 'description': 'reading books 11', 'owner': '620a323a3238b70017d5fce3', 'createdAt': '2022-02-14T17:53:51.022Z', 'updatedAt': '2022-02-14T17:53:51.022Z', '__v': 0}, {'completed': False, '_id': '620a97333238b70017d60019', 'description': 'reading books 12', 'owner': '620a323a3238b70017d5fce3', 'createdAt': '2022-02-14T17:53:55.543Z', 'updatedAt': '2022-02-14T17:53:55.543Z', '__v': 0}, {'completed': False, '_id': '620a97383238b70017d6001b', 'description': 'reading books 13', 'owner': '620a323a3238b70017d5fce3', 'createdAt': '2022-02-14T17:54:00.014Z', 'updatedAt': '2022-02-14T17:54:00.014Z', '__v': 0}, {'completed': False, '_id': '620a973c3238b70017d6001d', 'description': 'reading books 14', 'owner': '620a323a3238b70017d5fce3', 'createdAt': '2022-02-14T17:54:04.642Z', 'updatedAt': '2022-02-14T17:54:04.642Z', '__v': 0}, {'completed': False, '_id': '620a97413238b70017d6001f', 'description': 'reading books 15', 'owner': '620a323a3238b70017d5fce3', 'createdAt': '2022-02-14T17:54:09.163Z', 'updatedAt': '2022-02-14T17:54:09.163Z', '__v': 0}, {'completed': False, '_id': '620a97453238b70017d60021', 'description': 'reading books 16', 'owner': '620a323a3238b70017d5fce3', 'createdAt': '2022-02-14T17:54:13.607Z', 'updatedAt': '2022-02-14T17:54:13.607Z', '__v': 0}, {'completed': False, '_id': '620a974a3238b70017d60023', 'description': 'reading books 17', 'owner': '620a323a3238b70017d5fce3', 'createdAt': '2022-02-14T17:54:18.262Z', 'updatedAt': '2022-02-14T17:54:18.262Z', '__v': 0}, {'completed': False, '_id': '620a974e3238b70017d60025', 'description': 'reading books 18', 'owner': '620a323a3238b70017d5fce3', 'createdAt': '2022-02-14T17:54:22.916Z', 'updatedAt': '2022-02-14T17:54:22.916Z', '__v': 0}, {'completed': False, '_id': '620a97533238b70017d60027', 'description': 'reading books 19', 'owner': '620a323a3238b70017d5fce3', 'createdAt': '2022-02-14T17:54:27.622Z', 'updatedAt': '2022-02-14T17:54:27.622Z', '__v': 0}, {'completed': False, '_id': '620a97583238b70017d60029', 'description': 'reading books 20', 'owner': '620a323a3238b70017d5fce3', 'createdAt': '2022-02-14T17:54:32.199Z', 'updatedAt': '2022-02-14T17:54:32.199Z', '__v': 0}, {'completed': True, '_id': '620a5b123238b70017d5fd88', 'description': 'reading book 2', 'owner': '620a323a3238b70017d5fce3', 'createdAt': '2022-02-14T13:37:22.199Z', 'updatedAt': '2022-02-14T14:02:24.812Z', '__v': 0}]</t>
+        </is>
       </c>
     </row>
   </sheetData>
